--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Cx3cl1</t>
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.744854333333333</v>
+        <v>7.361448666666667</v>
       </c>
       <c r="H2">
-        <v>11.234563</v>
+        <v>22.084346</v>
       </c>
       <c r="I2">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="J2">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>9.292816083053779</v>
+        <v>20.31424395322422</v>
       </c>
       <c r="R2">
-        <v>83.635344747484</v>
+        <v>182.828195579018</v>
       </c>
       <c r="S2">
-        <v>0.05642863933129139</v>
+        <v>0.09806496603101161</v>
       </c>
       <c r="T2">
-        <v>0.05642863933129139</v>
+        <v>0.0980649660310116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.744854333333333</v>
+        <v>7.361448666666667</v>
       </c>
       <c r="H3">
-        <v>11.234563</v>
+        <v>22.084346</v>
       </c>
       <c r="I3">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="J3">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>27.13231972693366</v>
+        <v>53.33536663884733</v>
       </c>
       <c r="R3">
-        <v>244.190877542403</v>
+        <v>480.018299749626</v>
       </c>
       <c r="S3">
-        <v>0.1647552120271056</v>
+        <v>0.2574711089289626</v>
       </c>
       <c r="T3">
-        <v>0.1647552120271056</v>
+        <v>0.2574711089289626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.744854333333333</v>
+        <v>7.361448666666667</v>
       </c>
       <c r="H4">
-        <v>11.234563</v>
+        <v>22.084346</v>
       </c>
       <c r="I4">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="J4">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>2.452236721672778</v>
+        <v>3.828183965391556</v>
       </c>
       <c r="R4">
-        <v>22.070130495055</v>
+        <v>34.453655688524</v>
       </c>
       <c r="S4">
-        <v>0.01489068332844361</v>
+        <v>0.01848017240469351</v>
       </c>
       <c r="T4">
-        <v>0.01489068332844361</v>
+        <v>0.01848017240469351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.744854333333333</v>
+        <v>7.361448666666667</v>
       </c>
       <c r="H5">
-        <v>11.234563</v>
+        <v>22.084346</v>
       </c>
       <c r="I5">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="J5">
-        <v>0.2406267676902894</v>
+        <v>0.3809728075517136</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>0.7496736509965555</v>
+        <v>1.441057560456889</v>
       </c>
       <c r="R5">
-        <v>6.747062858969</v>
+        <v>12.969518044112</v>
       </c>
       <c r="S5">
-        <v>0.004552233003448782</v>
+        <v>0.006956560187045888</v>
       </c>
       <c r="T5">
-        <v>0.004552233003448783</v>
+        <v>0.006956560187045887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>30.951615</v>
       </c>
       <c r="I6">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="J6">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>25.60203415731334</v>
+        <v>28.47078459358833</v>
       </c>
       <c r="R6">
-        <v>230.41830741582</v>
+        <v>256.237061342295</v>
       </c>
       <c r="S6">
-        <v>0.1554628800030752</v>
+        <v>0.1374398442036703</v>
       </c>
       <c r="T6">
-        <v>0.1554628800030752</v>
+        <v>0.1374398442036703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>30.951615</v>
       </c>
       <c r="I7">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="J7">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>74.750492230535</v>
       </c>
       <c r="R7">
-        <v>672.754430074815</v>
+        <v>672.7544300748149</v>
       </c>
       <c r="S7">
-        <v>0.4539063862035704</v>
+        <v>0.3608504701562053</v>
       </c>
       <c r="T7">
-        <v>0.4539063862035704</v>
+        <v>0.3608504701562053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>30.951615</v>
       </c>
       <c r="I8">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="J8">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>6.755998154808334</v>
+        <v>5.365269872423334</v>
       </c>
       <c r="R8">
-        <v>60.80398339327501</v>
+        <v>48.28742885181</v>
       </c>
       <c r="S8">
-        <v>0.04102435470511005</v>
+        <v>0.02590029976000637</v>
       </c>
       <c r="T8">
-        <v>0.04102435470511005</v>
+        <v>0.02590029976000637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>30.951615</v>
       </c>
       <c r="I9">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="J9">
-        <v>0.662935182458301</v>
+        <v>0.5339403605073807</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>2.065377195471666</v>
+        <v>2.019668538253333</v>
       </c>
       <c r="R9">
-        <v>18.588394759245</v>
+        <v>18.17701684428</v>
       </c>
       <c r="S9">
-        <v>0.01254156154654528</v>
+        <v>0.009749746387498742</v>
       </c>
       <c r="T9">
-        <v>0.01254156154654528</v>
+        <v>0.009749746387498742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.500857333333333</v>
+        <v>1.634232333333333</v>
       </c>
       <c r="H10">
-        <v>4.502572</v>
+        <v>4.902697</v>
       </c>
       <c r="I10">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="J10">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>3.724361463521778</v>
+        <v>4.50973657480011</v>
       </c>
       <c r="R10">
-        <v>33.519253171696</v>
+        <v>40.58762917320099</v>
       </c>
       <c r="S10">
-        <v>0.02261538890753217</v>
+        <v>0.0217702989604194</v>
       </c>
       <c r="T10">
-        <v>0.02261538890753217</v>
+        <v>0.0217702989604194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.500857333333333</v>
+        <v>1.634232333333333</v>
       </c>
       <c r="H11">
-        <v>4.502572</v>
+        <v>4.902697</v>
       </c>
       <c r="I11">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="J11">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>10.87405207461467</v>
+        <v>11.84038422573967</v>
       </c>
       <c r="R11">
-        <v>97.86646867153199</v>
+        <v>106.563458031657</v>
       </c>
       <c r="S11">
-        <v>0.06603035690193816</v>
+        <v>0.05715826193506922</v>
       </c>
       <c r="T11">
-        <v>0.06603035690193815</v>
+        <v>0.05715826193506922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.500857333333333</v>
+        <v>1.634232333333333</v>
       </c>
       <c r="H12">
-        <v>4.502572</v>
+        <v>4.902697</v>
       </c>
       <c r="I12">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="J12">
-        <v>0.09643804985140959</v>
+        <v>0.08457548349701474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>0.9828039061577779</v>
+        <v>0.8498520192797778</v>
       </c>
       <c r="R12">
-        <v>8.845235155420001</v>
+        <v>7.648668173518001</v>
       </c>
       <c r="S12">
-        <v>0.005967866646483448</v>
+        <v>0.004102575000770848</v>
       </c>
       <c r="T12">
-        <v>0.005967866646483447</v>
+        <v>0.004102575000770847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.634232333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.902697</v>
+      </c>
+      <c r="I13">
+        <v>0.08457548349701474</v>
+      </c>
+      <c r="J13">
+        <v>0.08457548349701474</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1957573333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.587272</v>
+      </c>
+      <c r="O13">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="P13">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="Q13">
+        <v>0.3199129636204445</v>
+      </c>
+      <c r="R13">
+        <v>2.879216672584</v>
+      </c>
+      <c r="S13">
+        <v>0.001544347600755273</v>
+      </c>
+      <c r="T13">
+        <v>0.001544347600755273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.500857333333333</v>
-      </c>
-      <c r="H13">
-        <v>4.502572</v>
-      </c>
-      <c r="I13">
-        <v>0.09643804985140959</v>
-      </c>
-      <c r="J13">
-        <v>0.09643804985140959</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2001876666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.600563</v>
-      </c>
-      <c r="O13">
-        <v>0.01891823194544989</v>
-      </c>
-      <c r="P13">
-        <v>0.01891823194544989</v>
-      </c>
-      <c r="Q13">
-        <v>0.3004531275595555</v>
-      </c>
-      <c r="R13">
-        <v>2.704078148036</v>
-      </c>
-      <c r="S13">
-        <v>0.001824437395455826</v>
-      </c>
-      <c r="T13">
-        <v>0.001824437395455826</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H14">
+        <v>0.029642</v>
+      </c>
+      <c r="I14">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="J14">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.759544333333333</v>
+      </c>
+      <c r="N14">
+        <v>8.278632999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2574067337278401</v>
+      </c>
+      <c r="P14">
+        <v>0.2574067337278401</v>
+      </c>
+      <c r="Q14">
+        <v>0.02726613770955556</v>
+      </c>
+      <c r="R14">
+        <v>0.245395239386</v>
+      </c>
+      <c r="S14">
+        <v>0.0001316245327387665</v>
+      </c>
+      <c r="T14">
+        <v>0.0001316245327387665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H15">
+        <v>0.029642</v>
+      </c>
+      <c r="I15">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="J15">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6758254232987829</v>
+      </c>
+      <c r="P15">
+        <v>0.6758254232987829</v>
+      </c>
+      <c r="Q15">
+        <v>0.07158767291133335</v>
+      </c>
+      <c r="R15">
+        <v>0.6442890562020001</v>
+      </c>
+      <c r="S15">
+        <v>0.0003455822785457314</v>
+      </c>
+      <c r="T15">
+        <v>0.0003455822785457314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.029642</v>
+      </c>
+      <c r="I16">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="J16">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5200313333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.560094</v>
+      </c>
+      <c r="O16">
+        <v>0.0485078515798926</v>
+      </c>
+      <c r="P16">
+        <v>0.0485078515798926</v>
+      </c>
+      <c r="Q16">
+        <v>0.00513825626088889</v>
+      </c>
+      <c r="R16">
+        <v>0.046244306348</v>
+      </c>
+      <c r="S16">
+        <v>2.48044144218681E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.48044144218681E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H17">
+        <v>0.029642</v>
+      </c>
+      <c r="I17">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="J17">
+        <v>0.0005113484438908852</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1957573333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.587272</v>
+      </c>
+      <c r="O17">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="P17">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="Q17">
+        <v>0.001934212958222223</v>
+      </c>
+      <c r="R17">
+        <v>0.017407916624</v>
+      </c>
+      <c r="S17">
+        <v>9.337218184519216E-06</v>
+      </c>
+      <c r="T17">
+        <v>9.337218184519216E-06</v>
       </c>
     </row>
   </sheetData>
